--- a/src/main/resources/jxl/template/BSC_EXPORT.xlsx
+++ b/src/main/resources/jxl/template/BSC_EXPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijinku/Documents/hh_project/bd-core/src/main/resources/jxl/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56328917-8A46-3440-BB5C-64E0649A177F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CDF1A331-0FCE-024D-8A2E-7A3FCB27D49D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16080" xr2:uid="{186E2676-D102-A649-BF02-5FCF4E9A6EA9}"/>
   </bookViews>
@@ -57,7 +57,23 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="B2")
+          <t>jx:area(lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>C2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">")
 </t>
         </r>
         <r>
@@ -79,7 +95,27 @@
             <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:each( items="bscList" var="cd" lastCell="B2")
+          <t>jx:each( items="bscList" var="cd" lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>C2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">")
 </t>
         </r>
       </text>
@@ -89,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>R账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,6 +143,28 @@
   </si>
   <si>
     <t>${cd.userName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <rPh sb="0" eb="2">
+      <t>zhen sh</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <rPh sb="0" eb="2">
+      <t>lian x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cd.realName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cd.phone}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -534,32 +592,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFC24E5-A668-7042-9A28-326D5D36E5E4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/jxl/template/BSC_EXPORT.xlsx
+++ b/src/main/resources/jxl/template/BSC_EXPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijinku/Documents/hh_project/bd-core/src/main/resources/jxl/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CDF1A331-0FCE-024D-8A2E-7A3FCB27D49D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C21BEA7-6819-CF4D-8EF8-52006B3ABE72}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16080" xr2:uid="{186E2676-D102-A649-BF02-5FCF4E9A6EA9}"/>
   </bookViews>
@@ -57,24 +57,21 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>jx:area(lastCell="</t>
+          <t>jx:area(lastCell="C2")</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5C5D0B06-94AC-BD4B-9DA6-A620E6B27B3B}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
-          <t>C2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">")
-</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -83,8 +80,9 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -92,31 +90,10 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <family val="4"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each( items="bscList" var="cd" lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>C2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">")
-</t>
+          <t>jx:each( items="bscList" var="cd" lastCell="C2")</t>
         </r>
       </text>
     </comment>
@@ -172,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,6 +194,21 @@
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -595,7 +587,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/src/main/resources/jxl/template/BSC_EXPORT.xlsx
+++ b/src/main/resources/jxl/template/BSC_EXPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijinku/Documents/hh_project/bd-core/src/main/resources/jxl/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C21BEA7-6819-CF4D-8EF8-52006B3ABE72}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{048C9E8C-C78A-C74A-BAE8-E26D04465DBC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16080" xr2:uid="{186E2676-D102-A649-BF02-5FCF4E9A6EA9}"/>
   </bookViews>
@@ -57,7 +57,23 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>jx:area(lastCell="C2")</t>
+          <t>jx:area(lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>D</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2")</t>
         </r>
       </text>
     </comment>
@@ -68,10 +84,11 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <family val="2"/>
+            <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t xml:space="preserve">Author:
+</t>
         </r>
         <r>
           <rPr>
@@ -80,20 +97,28 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          </rPr>
+          <t>jx:each( items="bscList" var="cd" lastCell="</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <family val="2"/>
+            <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each( items="bscList" var="cd" lastCell="C2")</t>
+          <t>D</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2")</t>
         </r>
       </text>
     </comment>
@@ -149,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,21 +219,6 @@
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -587,7 +597,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
